--- a/test DB.xlsx
+++ b/test DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bath CW\IP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bath CW\IP20\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9F734-96D6-4838-B7A9-16BC16EE98FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7754D1-37B0-44C8-BF41-9B0ECE308D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>bite</t>
+    <t>DDDD</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test DB.xlsx
+++ b/test DB.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bath CW\IP20\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7754D1-37B0-44C8-BF41-9B0ECE308D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6286C282-95F1-4F0E-96AD-2A6F558477CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="STYLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
